--- a/PCB/Project Outputs for MercurialSDR/MercurialSDR.xlsx
+++ b/PCB/Project Outputs for MercurialSDR/MercurialSDR.xlsx
@@ -1,20 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63E20C3F-4BE4-46D3-8A4F-B3BB16ED795B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="36" windowWidth="15876" windowHeight="7968"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7875" xr2:uid="{10BABB34-284D-4049-92FC-C5FDD19EEF35}"/>
   </bookViews>
   <sheets>
     <sheet name="MercurialSDR" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="156">
   <si>
     <t>Designator</t>
   </si>
@@ -124,7 +139,7 @@
     <t>CN1</t>
   </si>
   <si>
-    <t>6-534236-2</t>
+    <t>6-534236-2 // PPPC122LFBN</t>
   </si>
   <si>
     <t>Conector genérico 12x2</t>
@@ -136,13 +151,13 @@
     <t>CN2</t>
   </si>
   <si>
-    <t>10118193-0001LF</t>
-  </si>
-  <si>
-    <t>USB Plug</t>
-  </si>
-  <si>
-    <t>USB_Micro</t>
+    <t>54819-0589</t>
+  </si>
+  <si>
+    <t>Mini-USB Plug</t>
+  </si>
+  <si>
+    <t>54819-0589_MOL</t>
   </si>
   <si>
     <t>D1</t>
@@ -235,7 +250,7 @@
     <t>SOT-23-8</t>
   </si>
   <si>
-    <t>IC3</t>
+    <t>IC3, IC4</t>
   </si>
   <si>
     <t>OPAMP2277 - OPA2277UA/2K5</t>
@@ -244,12 +259,6 @@
     <t>opa2277</t>
   </si>
   <si>
-    <t>IC4</t>
-  </si>
-  <si>
-    <t>OPAMP2277  - OPA2277UA/2K5</t>
-  </si>
-  <si>
     <t>IC6</t>
   </si>
   <si>
@@ -439,7 +448,7 @@
     <t>Test Point</t>
   </si>
   <si>
-    <t>TP_TH, TP_TOP, TP_TOP, TP_TOP, TP_TOP, TP_TOP, TP_TOP, TP_TOP, TP_TOP, TP_TOP, TP_TH, TP_TOP, TP_TOP</t>
+    <t>TP_TH</t>
   </si>
   <si>
     <t>U1</t>
@@ -493,7 +502,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,6 +576,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -582,44 +594,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -647,14 +659,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -682,6 +711,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -693,185 +739,161 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3928C7A0-383E-46AB-8928-6D2370FD29F3}">
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="84.21875" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="83.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,7 +910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -905,7 +927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -922,7 +944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -939,7 +961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -956,7 +978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -973,7 +995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -990,7 +1012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1007,7 +1029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1024,7 +1046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1041,7 +1063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1058,7 +1080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1075,7 +1097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1092,7 +1114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1109,7 +1131,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1126,7 +1148,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -1143,7 +1165,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -1160,7 +1182,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1177,7 +1199,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -1194,7 +1216,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -1211,7 +1233,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
@@ -1228,7 +1250,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -1245,7 +1267,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -1262,7 +1284,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>73</v>
       </c>
@@ -1273,13 +1295,13 @@
         <v>67</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
@@ -1287,126 +1309,126 @@
         <v>77</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -1415,7 +1437,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>103</v>
       </c>
@@ -1423,67 +1445,67 @@
         <v>104</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D35" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="3">
-        <v>12</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
@@ -1491,16 +1513,16 @@
         <v>118</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="3">
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>119</v>
       </c>
@@ -1508,16 +1530,16 @@
         <v>120</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>121</v>
       </c>
@@ -1525,16 +1547,16 @@
         <v>122</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>123</v>
       </c>
@@ -1542,16 +1564,16 @@
         <v>124</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D40" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>125</v>
       </c>
@@ -1559,16 +1581,16 @@
         <v>126</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
@@ -1576,16 +1598,16 @@
         <v>128</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>129</v>
       </c>
@@ -1593,16 +1615,16 @@
         <v>130</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D43" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>131</v>
       </c>
@@ -1610,16 +1632,16 @@
         <v>132</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
@@ -1627,119 +1649,102 @@
         <v>134</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D45" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B51" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" s="3">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>